--- a/WebContent/EBI_Delivery FY18 Allocation.xlsx
+++ b/WebContent/EBI_Delivery FY18 Allocation.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Resource vs. Projects" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planned Data Sheet'!$A$1:$K$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planned Data Sheet'!$A$1:$N$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Planned Resource Allocation'!$A$1:$K$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="114">
   <si>
     <t>Resource Name</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>Mahesh Vallem</t>
+  </si>
+  <si>
+    <t>2017-Feb</t>
+  </si>
+  <si>
+    <t>2017-Mar</t>
+  </si>
+  <si>
+    <t>2017-Apr</t>
   </si>
 </sst>
 </file>
@@ -617,6 +626,34 @@
     <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
   <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment textRotation="90" readingOrder="0"/>
     </dxf>
@@ -922,34 +959,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FF000000"/>
@@ -1059,7 +1068,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Shravan Batlanki" refreshedDate="42849.416247685185" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="66">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K67" sheet="Planned Data Sheet"/>
+    <worksheetSource ref="A1:N67" sheet="Planned Data Sheet"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Resource Name" numFmtId="0">
@@ -2504,42 +2513,42 @@
     <dataField name="Sum of Jan" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="11">
-    <format dxfId="30">
+    <format dxfId="34">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="33">
       <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="28">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="26">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="9">
@@ -2556,17 +2565,27 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="24">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="6">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="1">
-            <reference field="0" count="34">
+          <references count="2">
+            <reference field="4294967294" count="9" selected="0">
               <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+            </reference>
+            <reference field="0" count="33">
               <x v="1"/>
               <x v="2"/>
               <x v="3"/>
@@ -2649,22 +2668,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="6">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="9" selected="0">
+          <references count="1">
+            <reference field="0" count="34">
               <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-            </reference>
-            <reference field="0" count="33">
               <x v="1"/>
               <x v="2"/>
               <x v="3"/>
@@ -2975,27 +2984,27 @@
     <dataField name="Count of Project Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="19">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3004,7 +3013,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="33">
@@ -3045,58 +3054,58 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="16">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="14">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="8">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="6">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="5">
       <pivotArea grandRow="1" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -3378,11 +3387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3392,15 +3401,18 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3408,34 +3420,43 @@
         <v>15</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>90</v>
       </c>
@@ -3449,7 +3470,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F2" s="7">
         <v>50</v>
@@ -3469,8 +3490,17 @@
       <c r="K2" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="7">
+        <v>50</v>
+      </c>
+      <c r="M2" s="7">
+        <v>50</v>
+      </c>
+      <c r="N2" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>90</v>
       </c>
@@ -3504,8 +3534,17 @@
       <c r="K3" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="7">
+        <v>50</v>
+      </c>
+      <c r="M3" s="7">
+        <v>50</v>
+      </c>
+      <c r="N3" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>89</v>
       </c>
@@ -3522,25 +3561,34 @@
         <v>50</v>
       </c>
       <c r="F4" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>50</v>
+      </c>
+      <c r="I4" s="7">
+        <v>50</v>
+      </c>
+      <c r="J4" s="7">
         <v>25</v>
       </c>
-      <c r="H4" s="7">
+      <c r="K4" s="7">
         <v>25</v>
       </c>
-      <c r="I4" s="7">
+      <c r="L4" s="7">
         <v>25</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>89</v>
       </c>
@@ -3574,8 +3622,17 @@
       <c r="K5" s="23">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="23">
+        <v>50</v>
+      </c>
+      <c r="M5" s="23">
+        <v>50</v>
+      </c>
+      <c r="N5" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>62</v>
       </c>
@@ -3609,8 +3666,17 @@
       <c r="K6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>62</v>
       </c>
@@ -3644,8 +3710,17 @@
       <c r="K7" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="7">
+        <v>50</v>
+      </c>
+      <c r="M7" s="7">
+        <v>50</v>
+      </c>
+      <c r="N7" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
@@ -3679,8 +3754,17 @@
       <c r="K8" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="7">
+        <v>100</v>
+      </c>
+      <c r="M8" s="7">
+        <v>100</v>
+      </c>
+      <c r="N8" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>92</v>
       </c>
@@ -3714,8 +3798,17 @@
       <c r="K9" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="7">
+        <v>25</v>
+      </c>
+      <c r="M9" s="7">
+        <v>25</v>
+      </c>
+      <c r="N9" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>92</v>
       </c>
@@ -3749,8 +3842,17 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>92</v>
       </c>
@@ -3784,8 +3886,17 @@
       <c r="K11" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="7">
+        <v>50</v>
+      </c>
+      <c r="M11" s="7">
+        <v>50</v>
+      </c>
+      <c r="N11" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>93</v>
       </c>
@@ -3819,8 +3930,17 @@
       <c r="K12" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="7">
+        <v>25</v>
+      </c>
+      <c r="M12" s="7">
+        <v>25</v>
+      </c>
+      <c r="N12" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -3854,8 +3974,17 @@
       <c r="K13" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="7">
+        <v>50</v>
+      </c>
+      <c r="M13" s="7">
+        <v>50</v>
+      </c>
+      <c r="N13" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>91</v>
       </c>
@@ -3889,8 +4018,17 @@
       <c r="K14" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="7">
+        <v>20</v>
+      </c>
+      <c r="M14" s="7">
+        <v>20</v>
+      </c>
+      <c r="N14" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>91</v>
       </c>
@@ -3924,8 +4062,17 @@
       <c r="K15" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="7">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>30</v>
+      </c>
+      <c r="N15" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>94</v>
       </c>
@@ -3959,8 +4106,17 @@
       <c r="K16" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="7">
+        <v>100</v>
+      </c>
+      <c r="M16" s="7">
+        <v>100</v>
+      </c>
+      <c r="N16" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>95</v>
       </c>
@@ -3977,25 +4133,34 @@
         <v>100</v>
       </c>
       <c r="F17" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G17" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H17" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I17" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J17" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="7">
+        <v>50</v>
+      </c>
+      <c r="M17" s="7">
+        <v>50</v>
+      </c>
+      <c r="N17" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>95</v>
       </c>
@@ -4029,8 +4194,17 @@
       <c r="K18" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>96</v>
       </c>
@@ -4047,7 +4221,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G19" s="7">
         <v>100</v>
@@ -4064,8 +4238,17 @@
       <c r="K19" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="7">
+        <v>100</v>
+      </c>
+      <c r="M19" s="7">
+        <v>100</v>
+      </c>
+      <c r="N19" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>97</v>
       </c>
@@ -4099,8 +4282,17 @@
       <c r="K20" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="7">
+        <v>100</v>
+      </c>
+      <c r="M20" s="7">
+        <v>100</v>
+      </c>
+      <c r="N20" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>98</v>
       </c>
@@ -4134,8 +4326,17 @@
       <c r="K21" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="7">
+        <v>100</v>
+      </c>
+      <c r="M21" s="7">
+        <v>100</v>
+      </c>
+      <c r="N21" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>64</v>
       </c>
@@ -4169,8 +4370,17 @@
       <c r="K22" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="7">
+        <v>100</v>
+      </c>
+      <c r="M22" s="7">
+        <v>100</v>
+      </c>
+      <c r="N22" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>99</v>
       </c>
@@ -4187,10 +4397,10 @@
         <v>100</v>
       </c>
       <c r="F23" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -4204,8 +4414,17 @@
       <c r="K23" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="7">
+        <v>50</v>
+      </c>
+      <c r="M23" s="7">
+        <v>100</v>
+      </c>
+      <c r="N23" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>99</v>
       </c>
@@ -4239,8 +4458,17 @@
       <c r="K24" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>100</v>
       </c>
@@ -4274,8 +4502,17 @@
       <c r="K25" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="7">
+        <v>50</v>
+      </c>
+      <c r="M25" s="7">
+        <v>50</v>
+      </c>
+      <c r="N25" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>100</v>
       </c>
@@ -4309,8 +4546,17 @@
       <c r="K26" s="7">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="7">
+        <v>30</v>
+      </c>
+      <c r="M26" s="7">
+        <v>30</v>
+      </c>
+      <c r="N26" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>101</v>
       </c>
@@ -4344,8 +4590,17 @@
       <c r="K27" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
@@ -4379,8 +4634,17 @@
       <c r="K28" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="7">
+        <v>40</v>
+      </c>
+      <c r="M28" s="7">
+        <v>40</v>
+      </c>
+      <c r="N28" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>101</v>
       </c>
@@ -4414,8 +4678,17 @@
       <c r="K29" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="7">
+        <v>10</v>
+      </c>
+      <c r="M29" s="7">
+        <v>10</v>
+      </c>
+      <c r="N29" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>101</v>
       </c>
@@ -4449,8 +4722,17 @@
       <c r="K30" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="7">
+        <v>50</v>
+      </c>
+      <c r="M30" s="7">
+        <v>50</v>
+      </c>
+      <c r="N30" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>110</v>
       </c>
@@ -4467,7 +4749,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G31" s="7">
         <v>50</v>
@@ -4484,8 +4766,17 @@
       <c r="K31" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="7">
+        <v>50</v>
+      </c>
+      <c r="M31" s="7">
+        <v>50</v>
+      </c>
+      <c r="N31" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>110</v>
       </c>
@@ -4519,8 +4810,17 @@
       <c r="K32" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="7">
+        <v>50</v>
+      </c>
+      <c r="M32" s="7">
+        <v>50</v>
+      </c>
+      <c r="N32" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>102</v>
       </c>
@@ -4537,7 +4837,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G33" s="7">
         <v>10</v>
@@ -4549,13 +4849,22 @@
         <v>10</v>
       </c>
       <c r="J33" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="L33" s="7">
+        <v>10</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>102</v>
       </c>
@@ -4589,8 +4898,17 @@
       <c r="K34" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="7">
+        <v>25</v>
+      </c>
+      <c r="M34" s="7">
+        <v>25</v>
+      </c>
+      <c r="N34" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>102</v>
       </c>
@@ -4624,8 +4942,17 @@
       <c r="K35" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="7">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
+        <v>40</v>
+      </c>
+      <c r="N35" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>102</v>
       </c>
@@ -4659,8 +4986,17 @@
       <c r="K36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>103</v>
       </c>
@@ -4694,8 +5030,17 @@
       <c r="K37" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="7">
+        <v>50</v>
+      </c>
+      <c r="M37" s="7">
+        <v>50</v>
+      </c>
+      <c r="N37" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>103</v>
       </c>
@@ -4729,8 +5074,17 @@
       <c r="K38" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="7">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>50</v>
+      </c>
+      <c r="N38" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>20</v>
       </c>
@@ -4747,25 +5101,34 @@
         <v>75</v>
       </c>
       <c r="F39" s="7">
+        <v>50</v>
+      </c>
+      <c r="G39" s="7">
+        <v>50</v>
+      </c>
+      <c r="H39" s="7">
         <v>75</v>
       </c>
-      <c r="G39" s="7">
+      <c r="I39" s="7">
         <v>75</v>
       </c>
-      <c r="H39" s="7">
-        <v>50</v>
-      </c>
-      <c r="I39" s="7">
-        <v>50</v>
-      </c>
       <c r="J39" s="7">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K39" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="7">
+        <v>50</v>
+      </c>
+      <c r="M39" s="7">
+        <v>50</v>
+      </c>
+      <c r="N39" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>20</v>
       </c>
@@ -4799,8 +5162,17 @@
       <c r="K40" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>20</v>
       </c>
@@ -4817,25 +5189,34 @@
         <v>25</v>
       </c>
       <c r="F41" s="7">
+        <v>50</v>
+      </c>
+      <c r="G41" s="7">
+        <v>50</v>
+      </c>
+      <c r="H41" s="7">
         <v>25</v>
       </c>
-      <c r="G41" s="7">
+      <c r="I41" s="7">
         <v>25</v>
       </c>
-      <c r="H41" s="7">
-        <v>50</v>
-      </c>
-      <c r="I41" s="7">
-        <v>50</v>
-      </c>
       <c r="J41" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K41" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="7">
+        <v>50</v>
+      </c>
+      <c r="M41" s="7">
+        <v>50</v>
+      </c>
+      <c r="N41" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>55</v>
       </c>
@@ -4852,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G42" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -4869,8 +5250,17 @@
       <c r="K42" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>55</v>
       </c>
@@ -4887,10 +5277,10 @@
         <v>50</v>
       </c>
       <c r="F43" s="23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G43" s="23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H43" s="23">
         <v>50</v>
@@ -4904,8 +5294,17 @@
       <c r="K43" s="23">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="23">
+        <v>50</v>
+      </c>
+      <c r="M43" s="23">
+        <v>50</v>
+      </c>
+      <c r="N43" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
         <v>70</v>
       </c>
@@ -4939,8 +5338,17 @@
       <c r="K44" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="7">
+        <v>100</v>
+      </c>
+      <c r="M44" s="7">
+        <v>100</v>
+      </c>
+      <c r="N44" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>104</v>
       </c>
@@ -4974,8 +5382,17 @@
       <c r="K45" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="7">
+        <v>50</v>
+      </c>
+      <c r="M45" s="7">
+        <v>50</v>
+      </c>
+      <c r="N45" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>104</v>
       </c>
@@ -5009,8 +5426,17 @@
       <c r="K46" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="7">
+        <v>50</v>
+      </c>
+      <c r="M46" s="7">
+        <v>50</v>
+      </c>
+      <c r="N46" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>61</v>
       </c>
@@ -5044,8 +5470,17 @@
       <c r="K47" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="7">
+        <v>100</v>
+      </c>
+      <c r="M47" s="7">
+        <v>100</v>
+      </c>
+      <c r="N47" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>42</v>
       </c>
@@ -5079,8 +5514,17 @@
       <c r="K48" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="7">
+        <v>100</v>
+      </c>
+      <c r="M48" s="7">
+        <v>100</v>
+      </c>
+      <c r="N48" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>31</v>
       </c>
@@ -5114,8 +5558,17 @@
       <c r="K49" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="7">
+        <v>100</v>
+      </c>
+      <c r="M49" s="7">
+        <v>100</v>
+      </c>
+      <c r="N49" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>105</v>
       </c>
@@ -5149,8 +5602,17 @@
       <c r="K50" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="7">
+        <v>100</v>
+      </c>
+      <c r="M50" s="7">
+        <v>100</v>
+      </c>
+      <c r="N50" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>60</v>
       </c>
@@ -5184,8 +5646,17 @@
       <c r="K51" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="7">
+        <v>50</v>
+      </c>
+      <c r="M51" s="7">
+        <v>50</v>
+      </c>
+      <c r="N51" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>60</v>
       </c>
@@ -5219,8 +5690,17 @@
       <c r="K52" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>106</v>
       </c>
@@ -5254,8 +5734,17 @@
       <c r="K53" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="7">
+        <v>50</v>
+      </c>
+      <c r="M53" s="7">
+        <v>50</v>
+      </c>
+      <c r="N53" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>106</v>
       </c>
@@ -5289,8 +5778,17 @@
       <c r="K54" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" s="7">
+        <v>50</v>
+      </c>
+      <c r="M54" s="7">
+        <v>50</v>
+      </c>
+      <c r="N54" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>36</v>
       </c>
@@ -5307,7 +5805,7 @@
         <v>20</v>
       </c>
       <c r="F55" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G55" s="7">
         <v>20</v>
@@ -5319,13 +5817,22 @@
         <v>20</v>
       </c>
       <c r="J55" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="L55" s="7">
+        <v>20</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>36</v>
       </c>
@@ -5359,8 +5866,17 @@
       <c r="K56" s="23">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" s="23">
+        <v>30</v>
+      </c>
+      <c r="M56" s="23">
+        <v>30</v>
+      </c>
+      <c r="N56" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>18</v>
       </c>
@@ -5377,7 +5893,7 @@
         <v>50</v>
       </c>
       <c r="F57" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G57" s="7">
         <v>50</v>
@@ -5394,8 +5910,17 @@
       <c r="K57" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" s="7">
+        <v>50</v>
+      </c>
+      <c r="M57" s="7">
+        <v>50</v>
+      </c>
+      <c r="N57" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>18</v>
       </c>
@@ -5412,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G58" s="7">
         <v>0</v>
@@ -5429,8 +5954,17 @@
       <c r="K58" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="7">
+        <v>0</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>18</v>
       </c>
@@ -5464,8 +5998,17 @@
       <c r="K59" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="7">
+        <v>50</v>
+      </c>
+      <c r="M59" s="7">
+        <v>50</v>
+      </c>
+      <c r="N59" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>107</v>
       </c>
@@ -5499,8 +6042,17 @@
       <c r="K60" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="7">
+        <v>0</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>107</v>
       </c>
@@ -5534,8 +6086,17 @@
       <c r="K61" s="23">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="23">
+        <v>50</v>
+      </c>
+      <c r="M61" s="23">
+        <v>50</v>
+      </c>
+      <c r="N61" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>107</v>
       </c>
@@ -5552,7 +6113,7 @@
         <v>50</v>
       </c>
       <c r="F62" s="23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G62" s="23">
         <v>50</v>
@@ -5569,8 +6130,17 @@
       <c r="K62" s="23">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="23">
+        <v>50</v>
+      </c>
+      <c r="M62" s="23">
+        <v>50</v>
+      </c>
+      <c r="N62" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>65</v>
       </c>
@@ -5604,8 +6174,17 @@
       <c r="K63" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="7">
+        <v>100</v>
+      </c>
+      <c r="M63" s="7">
+        <v>100</v>
+      </c>
+      <c r="N63" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>108</v>
       </c>
@@ -5639,8 +6218,17 @@
       <c r="K64" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="7">
+        <v>100</v>
+      </c>
+      <c r="M64" s="7">
+        <v>100</v>
+      </c>
+      <c r="N64" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>109</v>
       </c>
@@ -5674,8 +6262,17 @@
       <c r="K65" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="7">
+        <v>50</v>
+      </c>
+      <c r="M65" s="7">
+        <v>50</v>
+      </c>
+      <c r="N65" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>109</v>
       </c>
@@ -5709,8 +6306,17 @@
       <c r="K66" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="7">
+        <v>0</v>
+      </c>
+      <c r="M66" s="7">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>109</v>
       </c>
@@ -5727,7 +6333,7 @@
         <v>50</v>
       </c>
       <c r="F67" s="7">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G67" s="7">
         <v>50</v>
@@ -5744,9 +6350,18 @@
       <c r="K67" s="7">
         <v>50</v>
       </c>
+      <c r="L67" s="7">
+        <v>50</v>
+      </c>
+      <c r="M67" s="7">
+        <v>50</v>
+      </c>
+      <c r="N67" s="7">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K68">
+  <autoFilter ref="A1:N68">
     <sortState ref="A3:K58">
       <sortCondition ref="A3:A58"/>
     </sortState>
@@ -7198,22 +7813,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="B4:J24 B26:J38">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="B4:J24 B26:J38">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:K38">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
